--- a/extras/test-form/plugin_test_form_integer.xlsx
+++ b/extras/test-form/plugin_test_form_integer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max.s.haberman/Documents/Code/Other field plug-in repos/baseline-integer/extras/test-form/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cking/github/baseline-integer/extras/test-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8EBAE4-58AA-2A40-9624-B1AD198F6957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE253642-7518-B042-A137-2D5300B40250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="75780" windowHeight="42700" tabRatio="534" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="444">
   <si>
     <t>type</t>
   </si>
@@ -2679,9 +2679,6 @@
   </si>
   <si>
     <t>هذا تلميح.</t>
-  </si>
-  <si>
-    <t>قصير جدا!</t>
   </si>
   <si>
     <t>انتظر ، هذا الحقل مطلوب!</t>
@@ -3390,6 +3387,12 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3422,12 +3425,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="108">
@@ -18313,11 +18310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18328,30 +18325,30 @@
     <col min="4" max="4" width="30.5" style="10" customWidth="1"/>
     <col min="5" max="5" width="23" style="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="23" style="11" customWidth="1"/>
-    <col min="7" max="7" width="46" style="9" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.1640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.1640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.1640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.5" style="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.6640625" style="11" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.5" style="9" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.1640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10" style="9" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.5" style="9" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="18" style="9" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21" style="9" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="9.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15" style="9" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="48" style="9" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.83203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="17" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="11" style="2" collapsed="1"/>
-    <col min="30" max="31" width="11" style="2"/>
-    <col min="32" max="16384" width="11" style="2" collapsed="1"/>
+    <col min="18" max="18" width="11.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15" style="9" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="48" style="9" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" style="9" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="17" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="27" width="11" style="2" collapsed="1"/>
+    <col min="28" max="29" width="11" style="2"/>
+    <col min="30" max="30" width="11" style="2" collapsed="1"/>
+    <col min="31" max="32" width="11" style="2"/>
+    <col min="33" max="16384" width="11" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -18404,43 +18401,37 @@
         <v>368</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>372</v>
+        <v>30</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>30</v>
+        <v>375</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y1" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
       <c r="Z1" t="s">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="AA1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -18453,22 +18444,22 @@
       <c r="M2" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="Z2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="Z3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -18481,11 +18472,11 @@
       <c r="M4" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="Z4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -18498,11 +18489,11 @@
       <c r="M5" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="Z5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
@@ -18515,11 +18506,11 @@
       <c r="M6" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="Z6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
@@ -18532,11 +18523,11 @@
       <c r="M7" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="Z7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>296</v>
       </c>
@@ -18549,11 +18540,11 @@
       <c r="M8" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="Z8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>139</v>
       </c>
@@ -18566,14 +18557,14 @@
       <c r="M9" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="T9" t="s">
+      <c r="R9" t="s">
         <v>293</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="Z9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>292</v>
       </c>
@@ -18586,11 +18577,11 @@
       <c r="M10" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="Z10" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="L11" s="11" t="s">
         <v>358</v>
       </c>
@@ -18598,7 +18589,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>91</v>
       </c>
@@ -18606,42 +18597,42 @@
         <v>379</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="E12" t="s">
         <v>412</v>
       </c>
-      <c r="D12" s="64" t="s">
-        <v>430</v>
-      </c>
-      <c r="E12" t="s">
-        <v>413</v>
-      </c>
       <c r="F12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="E13" t="s">
         <v>412</v>
       </c>
-      <c r="D13" s="64" t="s">
-        <v>430</v>
-      </c>
-      <c r="E13" t="s">
-        <v>413</v>
-      </c>
       <c r="F13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>91</v>
       </c>
@@ -18651,8 +18642,8 @@
       <c r="C14" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D14" s="64" t="s">
-        <v>431</v>
+      <c r="D14" s="53" t="s">
+        <v>430</v>
       </c>
       <c r="E14" t="s">
         <v>382</v>
@@ -18661,18 +18652,18 @@
         <v>397</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D15" s="64" t="s">
-        <v>431</v>
+      <c r="D15" s="53" t="s">
+        <v>430</v>
       </c>
       <c r="E15" t="s">
         <v>382</v>
@@ -18681,10 +18672,10 @@
         <v>397</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>91</v>
       </c>
@@ -18695,45 +18686,45 @@
         <v>383</v>
       </c>
       <c r="D16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>442</v>
+        <v>413</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>441</v>
       </c>
       <c r="G16">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C17" t="s">
         <v>383</v>
       </c>
       <c r="D17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>442</v>
+        <v>413</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>441</v>
       </c>
       <c r="G17">
         <v>42</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>91</v>
       </c>
@@ -18741,48 +18732,48 @@
         <v>384</v>
       </c>
       <c r="C18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D18" t="s">
+        <v>432</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="D18" t="s">
-        <v>433</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>416</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C19" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" t="s">
+        <v>432</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="D19" t="s">
-        <v>433</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>416</v>
-      </c>
       <c r="F19" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>91</v>
       </c>
@@ -18790,36 +18781,36 @@
         <v>367</v>
       </c>
       <c r="C20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N20" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N21" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>91</v>
       </c>
@@ -18827,47 +18818,47 @@
         <v>387</v>
       </c>
       <c r="C22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q22" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q23" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G24" s="9">
         <v>42</v>
@@ -18876,30 +18867,30 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G25" s="9">
         <v>42</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>91</v>
       </c>
@@ -18910,33 +18901,33 @@
         <v>388</v>
       </c>
       <c r="D26" t="s">
-        <v>437</v>
-      </c>
-      <c r="V26" t="s">
+        <v>436</v>
+      </c>
+      <c r="T26" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C27" t="s">
         <v>388</v>
       </c>
       <c r="D27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="V27" t="s">
+        <v>422</v>
+      </c>
+      <c r="T27" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>91</v>
       </c>
@@ -18947,33 +18938,33 @@
         <v>390</v>
       </c>
       <c r="D28" t="s">
-        <v>438</v>
-      </c>
-      <c r="W28" t="s">
+        <v>437</v>
+      </c>
+      <c r="U28" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C29" t="s">
         <v>390</v>
       </c>
       <c r="D29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="W29" t="s">
+        <v>422</v>
+      </c>
+      <c r="U29" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>91</v>
       </c>
@@ -18984,67 +18975,67 @@
         <v>392</v>
       </c>
       <c r="D30" t="s">
-        <v>439</v>
-      </c>
-      <c r="X30" t="s">
+        <v>438</v>
+      </c>
+      <c r="V30" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C31" t="s">
         <v>392</v>
       </c>
       <c r="D31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="X31" t="s">
+        <v>422</v>
+      </c>
+      <c r="V31" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>91</v>
       </c>
@@ -19058,19 +19049,19 @@
         <v>396</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F34" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="I34" t="s">
+        <v>417</v>
+      </c>
+      <c r="J34" t="s">
+        <v>418</v>
+      </c>
+      <c r="K34" t="s">
         <v>443</v>
-      </c>
-      <c r="I34" t="s">
-        <v>418</v>
-      </c>
-      <c r="J34" t="s">
-        <v>419</v>
-      </c>
-      <c r="K34" t="s">
-        <v>444</v>
       </c>
       <c r="N34" t="s">
         <v>385</v>
@@ -19079,21 +19070,15 @@
         <v>386</v>
       </c>
       <c r="P34" t="s">
-        <v>399</v>
-      </c>
-      <c r="R34" t="s">
         <v>398</v>
       </c>
-      <c r="S34" t="s">
-        <v>399</v>
-      </c>
     </row>
-    <row r="35" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C35" t="s">
         <v>395</v>
@@ -19102,22 +19087,22 @@
         <v>396</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F35" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="I35" t="s">
+        <v>417</v>
+      </c>
+      <c r="J35" t="s">
+        <v>418</v>
+      </c>
+      <c r="K35" t="s">
         <v>443</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="I35" t="s">
-        <v>418</v>
-      </c>
-      <c r="J35" t="s">
-        <v>419</v>
-      </c>
-      <c r="K35" t="s">
-        <v>444</v>
       </c>
       <c r="N35" t="s">
         <v>385</v>
@@ -19126,13 +19111,7 @@
         <v>386</v>
       </c>
       <c r="P35" t="s">
-        <v>399</v>
-      </c>
-      <c r="R35" t="s">
         <v>398</v>
-      </c>
-      <c r="S35" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -19204,7 +19183,7 @@
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C11 B12:C12 B14:C14 B16:C16 B18:C18 B20:C20 B24:C24 B26:C26 B28:C28 B30:C30 B32:C32 A12:A14 B34 E34 A16:A21 A36:C1048576 A24:A35 E36:E1048576 E32 E30 E28 E26 E24 E20 E18 E16 E14 E1:E12 G1:J12 G14:J14 G16:J16 G18:J18 G20:J20 G24:J24 G26:J26 G28:J28 G30:J30 G32:J32 G36:J1048576 G34:J34 L34:O34 L36:O1048576 L32:O32 L30:O30 L28:O28 L26:O26 L24:O24 L20:O20 L18:O18 L16:O16 L14:O14 L1:O12 Q1:Y1048576">
+  <conditionalFormatting sqref="A1:C11 B12:C12 B14:C14 B16:C16 B18:C18 B20:C20 B24:C24 B26:C26 B28:C28 B30:C30 B32:C32 A12:A14 B34 E34 A16:A21 A36:C1048576 A24:A35 E36:E1048576 E32 E30 E28 E26 E24 E20 E18 E16 E14 E1:E12 G1:J12 G14:J14 G16:J16 G18:J18 G20:J20 G24:J24 G26:J26 G28:J28 G30:J30 G32:J32 G36:J1048576 G34:J34 L34:O34 L36:O1048576 L32:O32 L30:O30 L28:O28 L26:O26 L24:O24 L20:O20 L18:O18 L16:O16 L14:O14 L1:O12 Q1:W1048576">
     <cfRule type="expression" dxfId="1868" priority="2266" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
@@ -25835,14 +25814,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="27" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1" collapsed="1"/>
@@ -25872,14 +25851,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2005011336</v>
+        <v>2101121200</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>358</v>
@@ -25914,22 +25893,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:30" s="33" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -26123,10 +26102,10 @@
       <c r="C7" s="32"/>
     </row>
     <row r="8" spans="1:30" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
@@ -28916,10 +28895,10 @@
       <c r="AD81" s="43"/>
     </row>
     <row r="83" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="60" t="s">
+      <c r="A83" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="B83" s="61"/>
+      <c r="B83" s="63"/>
       <c r="C83" s="26"/>
       <c r="D83" s="25"/>
       <c r="E83" s="30"/>
@@ -30079,20 +30058,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:8" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="60"/>
     </row>
     <row r="4" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -30167,28 +30146,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="65"/>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:8" s="33" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
